--- a/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,7 +758,9 @@
       <c r="D22" t="n">
         <v>1.399999976158142</v>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>1.399999976158142</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -770,7 +772,9 @@
       <c r="C23" t="n">
         <v>1.399999976158142</v>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>1.399999976158142</v>
+      </c>
       <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -780,9 +784,22 @@
       <c r="B24" t="n">
         <v>1.399999976158142</v>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>1.399999976158142</v>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -795,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1147,6 +1164,20 @@
         <v>1.463272452354431</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.521088242530823</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.444003939628601</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.511517643928528</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,339 +467,229 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>45656</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.384999990463257</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.524999976158142</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.524999976158142</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.524999976158142</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>45600</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.449999988079071</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.404999971389771</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.435000002384186</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.419999957084656</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>45607</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.404999971389771</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.435000002384186</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.419999957084656</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.394999980926514</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>45614</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.435000002384186</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.419999957084656</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.394999980926514</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.389999985694885</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>45621</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.419999957084656</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.394999980926514</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.384999990463257</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+        <v>45628</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.394999980926514</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.384999990463257</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.384999990463257</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+        <v>45635</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.384999990463257</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.384999990463257</v>
+      </c>
       <c r="E8" t="n">
-        <v>1.479999959468842</v>
+        <v>1.399999976158142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+        <v>45642</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.384999990463257</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.384999990463257</v>
+      </c>
       <c r="D9" t="n">
-        <v>1.479999959468842</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="E9" t="n">
-        <v>1.459999978542328</v>
+        <v>1.399999976158142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+        <v>45649</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.384999990463257</v>
+      </c>
       <c r="C10" t="n">
-        <v>1.479999959468842</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="D10" t="n">
-        <v>1.459999978542328</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="E10" t="n">
-        <v>1.444999992847443</v>
+        <v>1.399999976158142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45663</v>
       </c>
       <c r="B11" t="n">
-        <v>1.479999959468842</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="C11" t="n">
-        <v>1.459999978542328</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="D11" t="n">
-        <v>1.444999992847443</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="E11" t="n">
-        <v>1.449999988079071</v>
+        <v>1.394999980926514</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45670</v>
       </c>
       <c r="B12" t="n">
-        <v>1.459999978542328</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="C12" t="n">
-        <v>1.444999992847443</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="D12" t="n">
-        <v>1.449999988079071</v>
+        <v>1.394999980926514</v>
       </c>
       <c r="E12" t="n">
-        <v>1.449999988079071</v>
+        <v>1.404999971389771</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45677</v>
       </c>
       <c r="B13" t="n">
-        <v>1.444999992847443</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="C13" t="n">
-        <v>1.449999988079071</v>
+        <v>1.394999980926514</v>
       </c>
       <c r="D13" t="n">
-        <v>1.449999988079071</v>
-      </c>
-      <c r="E13" t="n">
         <v>1.404999971389771</v>
       </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45684</v>
       </c>
       <c r="B14" t="n">
-        <v>1.449999988079071</v>
+        <v>1.394999980926514</v>
       </c>
       <c r="C14" t="n">
-        <v>1.449999988079071</v>
-      </c>
-      <c r="D14" t="n">
         <v>1.404999971389771</v>
       </c>
-      <c r="E14" t="n">
-        <v>1.435000002384186</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45691</v>
       </c>
       <c r="B15" t="n">
-        <v>1.449999988079071</v>
-      </c>
-      <c r="C15" t="n">
         <v>1.404999971389771</v>
       </c>
-      <c r="D15" t="n">
-        <v>1.435000002384186</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.419999957084656</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.404999971389771</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.435000002384186</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.419999957084656</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.394999980926514</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.435000002384186</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.419999957084656</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.394999980926514</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.389999985694885</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.419999957084656</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.394999980926514</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.384999990463257</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.394999980926514</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.384999990463257</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.384999990463257</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.384999990463257</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.384999990463257</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.399999976158142</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.384999990463257</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.384999990463257</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.399999976158142</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.384999990463257</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.399999976158142</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -812,7 +702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,338 +734,198 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.215258598327637</v>
+        <v>1.45644736289978</v>
       </c>
       <c r="C2" t="n">
-        <v>1.417385816574097</v>
+        <v>1.461966156959534</v>
       </c>
       <c r="D2" t="n">
-        <v>1.454086899757385</v>
+        <v>1.42672598361969</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45600</v>
       </c>
       <c r="B3" t="n">
-        <v>1.495815396308899</v>
+        <v>1.476096034049988</v>
       </c>
       <c r="C3" t="n">
-        <v>1.503914952278137</v>
+        <v>1.475467920303345</v>
       </c>
       <c r="D3" t="n">
-        <v>1.455671906471252</v>
+        <v>1.469035387039185</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45607</v>
       </c>
       <c r="B4" t="n">
-        <v>1.494600653648376</v>
+        <v>1.476085066795349</v>
       </c>
       <c r="C4" t="n">
-        <v>1.472983837127686</v>
+        <v>1.474404692649841</v>
       </c>
       <c r="D4" t="n">
-        <v>1.416564702987671</v>
+        <v>1.466949701309204</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45614</v>
       </c>
       <c r="B5" t="n">
-        <v>1.494847655296326</v>
+        <v>1.479117512702942</v>
       </c>
       <c r="C5" t="n">
-        <v>1.481335163116455</v>
+        <v>1.494732856750488</v>
       </c>
       <c r="D5" t="n">
-        <v>1.392406702041626</v>
+        <v>1.46946382522583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45621</v>
       </c>
       <c r="B6" t="n">
-        <v>1.489888548851013</v>
+        <v>1.476594567298889</v>
       </c>
       <c r="C6" t="n">
-        <v>1.466545104980469</v>
+        <v>1.486786365509033</v>
       </c>
       <c r="D6" t="n">
-        <v>1.441508412361145</v>
+        <v>1.471192240715027</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45628</v>
       </c>
       <c r="B7" t="n">
-        <v>1.494672417640686</v>
+        <v>1.464870572090149</v>
       </c>
       <c r="C7" t="n">
-        <v>1.503551006317139</v>
+        <v>1.400990962982178</v>
       </c>
       <c r="D7" t="n">
-        <v>1.446123003959656</v>
+        <v>1.437771677970886</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45635</v>
       </c>
       <c r="B8" t="n">
-        <v>1.489100813865662</v>
+        <v>1.464471936225891</v>
       </c>
       <c r="C8" t="n">
-        <v>1.49780547618866</v>
+        <v>1.41668701171875</v>
       </c>
       <c r="D8" t="n">
-        <v>1.484200239181519</v>
+        <v>1.436291813850403</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45642</v>
       </c>
       <c r="B9" t="n">
-        <v>1.496064305305481</v>
+        <v>1.464135766029358</v>
       </c>
       <c r="C9" t="n">
-        <v>1.521746277809143</v>
+        <v>1.462931036949158</v>
       </c>
       <c r="D9" t="n">
-        <v>1.491559386253357</v>
+        <v>1.448742270469666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45649</v>
       </c>
       <c r="B10" t="n">
-        <v>1.508269786834717</v>
+        <v>1.464016437530518</v>
       </c>
       <c r="C10" t="n">
-        <v>1.551915526390076</v>
+        <v>1.461675763130188</v>
       </c>
       <c r="D10" t="n">
-        <v>1.513833999633789</v>
+        <v>1.441214919090271</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45663</v>
       </c>
       <c r="B11" t="n">
-        <v>1.52936315536499</v>
+        <v>1.463260531425476</v>
       </c>
       <c r="C11" t="n">
-        <v>1.49399995803833</v>
+        <v>1.454325199127197</v>
       </c>
       <c r="D11" t="n">
-        <v>1.515747785568237</v>
+        <v>1.435130834579468</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45670</v>
       </c>
       <c r="B12" t="n">
-        <v>1.519713640213013</v>
+        <v>1.462042927742004</v>
       </c>
       <c r="C12" t="n">
-        <v>1.489295363426208</v>
+        <v>1.42751157283783</v>
       </c>
       <c r="D12" t="n">
-        <v>1.515684604644775</v>
+        <v>1.436814308166504</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45677</v>
       </c>
       <c r="B13" t="n">
-        <v>1.523751378059387</v>
+        <v>1.461985468864441</v>
       </c>
       <c r="C13" t="n">
-        <v>1.457716226577759</v>
+        <v>1.421773076057434</v>
       </c>
       <c r="D13" t="n">
-        <v>1.510476231575012</v>
+        <v>1.434945940971375</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45684</v>
       </c>
       <c r="B14" t="n">
-        <v>1.52003026008606</v>
+        <v>1.465494275093079</v>
       </c>
       <c r="C14" t="n">
-        <v>1.508446335792542</v>
+        <v>1.410275816917419</v>
       </c>
       <c r="D14" t="n">
-        <v>1.542299151420593</v>
+        <v>1.439862489700317</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45691</v>
       </c>
       <c r="B15" t="n">
-        <v>1.520913004875183</v>
+        <v>1.467917561531067</v>
       </c>
       <c r="C15" t="n">
-        <v>1.49760103225708</v>
+        <v>1.412436127662659</v>
       </c>
       <c r="D15" t="n">
-        <v>1.534250617027283</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.522073030471802</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.461222887039185</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.529148817062378</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.523548483848572</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.47086763381958</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.528125762939453</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.526079773902893</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.488781690597534</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.517125964164734</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.523604393005371</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.451728105545044</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.52066695690155</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.525164008140564</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.513619542121887</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.515600562095642</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.522558689117432</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.496722817420959</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.523487567901611</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.523530960083008</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.527390360832214</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.511594414710999</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.519344925880432</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.518000245094299</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.538197755813599</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.522321462631226</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.467674732208252</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.463272452354431</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.521088242530823</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.444003939628601</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.511517643928528</v>
+        <v>1.435206651687622</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,212 +484,373 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.449999988079071</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.404999971389771</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.435000002384186</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.419999957084656</v>
-      </c>
+        <v>45509</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.404999971389771</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.435000002384186</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.419999957084656</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.394999980926514</v>
-      </c>
+        <v>45516</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.435000002384186</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.419999957084656</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.394999980926514</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.389999985694885</v>
-      </c>
+        <v>45523</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.419999957084656</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.394999980926514</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.384999990463257</v>
-      </c>
+        <v>45530</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.394999980926514</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.384999990463257</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.384999990463257</v>
-      </c>
+        <v>45537</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.384999990463257</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.384999990463257</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.399999976158142</v>
-      </c>
+        <v>45544</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.384999990463257</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.384999990463257</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.399999976158142</v>
-      </c>
+        <v>45551</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1.399999976158142</v>
+        <v>1.479999959468842</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.384999990463257</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.399999976158142</v>
-      </c>
+        <v>45558</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1.399999976158142</v>
+        <v>1.479999959468842</v>
       </c>
       <c r="E10" t="n">
-        <v>1.399999976158142</v>
+        <v>1.459999978542328</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.399999976158142</v>
-      </c>
+        <v>45565</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.399999976158142</v>
+        <v>1.479999959468842</v>
       </c>
       <c r="D11" t="n">
-        <v>1.399999976158142</v>
+        <v>1.459999978542328</v>
       </c>
       <c r="E11" t="n">
-        <v>1.394999980926514</v>
+        <v>1.444999992847443</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45670</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.399999976158142</v>
+        <v>1.479999959468842</v>
       </c>
       <c r="C12" t="n">
-        <v>1.399999976158142</v>
+        <v>1.459999978542328</v>
       </c>
       <c r="D12" t="n">
-        <v>1.394999980926514</v>
+        <v>1.444999992847443</v>
       </c>
       <c r="E12" t="n">
-        <v>1.404999971389771</v>
+        <v>1.449999988079071</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45677</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.399999976158142</v>
+        <v>1.459999978542328</v>
       </c>
       <c r="C13" t="n">
-        <v>1.394999980926514</v>
+        <v>1.444999992847443</v>
       </c>
       <c r="D13" t="n">
-        <v>1.404999971389771</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>1.449999988079071</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.449999988079071</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45684</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.394999980926514</v>
+        <v>1.444999992847443</v>
       </c>
       <c r="C14" t="n">
+        <v>1.449999988079071</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.449999988079071</v>
+      </c>
+      <c r="E14" t="n">
         <v>1.404999971389771</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.449999988079071</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.449999988079071</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.404999971389771</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.435000002384186</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.449999988079071</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.404999971389771</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.435000002384186</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.419999957084656</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.404999971389771</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.435000002384186</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.419999957084656</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.394999980926514</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.435000002384186</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.419999957084656</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.394999980926514</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.389999985694885</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.419999957084656</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.394999980926514</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.384999990463257</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.394999980926514</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.384999990463257</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.384999990463257</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.384999990463257</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.384999990463257</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.399999976158142</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.384999990463257</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.384999990463257</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.399999976158142</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.384999990463257</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.399999976158142</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.394999980926514</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.394999980926514</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.404999971389771</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.394999980926514</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.404999971389771</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.394999980926514</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.404999971389771</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B28" t="n">
         <v>1.404999971389771</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -702,7 +863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,195 +898,377 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.45644736289978</v>
+        <v>1.47563898563385</v>
       </c>
       <c r="C2" t="n">
-        <v>1.461966156959534</v>
+        <v>1.488592147827148</v>
       </c>
       <c r="D2" t="n">
-        <v>1.42672598361969</v>
+        <v>1.419041633605957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45600</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.476096034049988</v>
+        <v>1.197889447212219</v>
       </c>
       <c r="C3" t="n">
-        <v>1.475467920303345</v>
+        <v>1.427534341812134</v>
       </c>
       <c r="D3" t="n">
-        <v>1.469035387039185</v>
+        <v>1.433180928230286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45607</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.476085066795349</v>
+        <v>1.500845909118652</v>
       </c>
       <c r="C4" t="n">
-        <v>1.474404692649841</v>
+        <v>1.505196094512939</v>
       </c>
       <c r="D4" t="n">
-        <v>1.466949701309204</v>
+        <v>1.435681462287903</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45614</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.479117512702942</v>
+        <v>1.500158190727234</v>
       </c>
       <c r="C5" t="n">
-        <v>1.494732856750488</v>
+        <v>1.485893964767456</v>
       </c>
       <c r="D5" t="n">
-        <v>1.46946382522583</v>
+        <v>1.369091629981995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45621</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.476594567298889</v>
+        <v>1.49676513671875</v>
       </c>
       <c r="C6" t="n">
-        <v>1.486786365509033</v>
+        <v>1.48973822593689</v>
       </c>
       <c r="D6" t="n">
-        <v>1.471192240715027</v>
+        <v>1.380290150642395</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45628</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.464870572090149</v>
+        <v>1.53440535068512</v>
       </c>
       <c r="C7" t="n">
-        <v>1.400990962982178</v>
+        <v>1.490962982177734</v>
       </c>
       <c r="D7" t="n">
-        <v>1.437771677970886</v>
+        <v>1.459923386573792</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45635</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.464471936225891</v>
+        <v>1.500158190727234</v>
       </c>
       <c r="C8" t="n">
-        <v>1.41668701171875</v>
+        <v>1.499955177307129</v>
       </c>
       <c r="D8" t="n">
-        <v>1.436291813850403</v>
+        <v>1.401888966560364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45642</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.464135766029358</v>
+        <v>1.496873497962952</v>
       </c>
       <c r="C9" t="n">
-        <v>1.462931036949158</v>
+        <v>1.507032752037048</v>
       </c>
       <c r="D9" t="n">
-        <v>1.448742270469666</v>
+        <v>1.488154530525208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45649</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.464016437530518</v>
+        <v>1.496941566467285</v>
       </c>
       <c r="C10" t="n">
-        <v>1.461675763130188</v>
+        <v>1.509932041168213</v>
       </c>
       <c r="D10" t="n">
-        <v>1.441214919090271</v>
+        <v>1.520715475082397</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45663</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.463260531425476</v>
+        <v>1.503704071044922</v>
       </c>
       <c r="C11" t="n">
-        <v>1.454325199127197</v>
+        <v>1.557882785797119</v>
       </c>
       <c r="D11" t="n">
-        <v>1.435130834579468</v>
+        <v>1.535121202468872</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45670</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.462042927742004</v>
+        <v>1.4971604347229</v>
       </c>
       <c r="C12" t="n">
-        <v>1.42751157283783</v>
+        <v>1.517968058586121</v>
       </c>
       <c r="D12" t="n">
-        <v>1.436814308166504</v>
+        <v>1.525589346885681</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45677</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.461985468864441</v>
+        <v>1.521479368209839</v>
       </c>
       <c r="C13" t="n">
-        <v>1.421773076057434</v>
+        <v>1.509179711341858</v>
       </c>
       <c r="D13" t="n">
-        <v>1.434945940971375</v>
+        <v>1.513992309570312</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45684</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.465494275093079</v>
+        <v>1.505204916000366</v>
       </c>
       <c r="C14" t="n">
-        <v>1.410275816917419</v>
+        <v>1.518368005752563</v>
       </c>
       <c r="D14" t="n">
-        <v>1.439862489700317</v>
+        <v>1.518237948417664</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.526449203491211</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.543480277061462</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.558897614479065</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.494455337524414</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.542732715606689</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.549822092056274</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.525384545326233</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.512308835983276</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.554907560348511</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.505883812904358</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.483951091766357</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.535401940345764</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.491924524307251</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.487385988235474</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.508785247802734</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.498319506645203</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.531353116035461</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.525550603866577</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.492223262786865</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.499572157859802</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.508169412612915</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.529892325401306</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.504270553588867</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.503114104270935</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.49134886264801</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.520463943481445</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.417189717292786</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.525316715240479</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.49042022228241</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.521194100379944</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.495038747787476</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.467757701873779</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.406204581260681</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.497687220573425</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.481197953224182</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.500619292259216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.480063676834106</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.454556107521057</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.407195568084717</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B15" t="n">
-        <v>1.467917561531067</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.412436127662659</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.435206651687622</v>
+      <c r="B28" t="n">
+        <v>1.479875564575195</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.4662024974823</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.478693246841431</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GOLDEN_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GOLDEN FRANCE 170/220G CAT.I PLATEAU 1RG_S+1</t>
+          <t>PRIX EXP POMME GOLDEN FRANCE 170/220G CAT.I PLATEAU 1RG_S+1_class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GOLDEN FRANCE 170/220G CAT.I PLATEAU 1RG_S+2</t>
+          <t>PRIX EXP POMME GOLDEN FRANCE 170/220G CAT.I PLATEAU 1RG_S+2_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GOLDEN FRANCE 170/220G CAT.I PLATEAU 1RG_S+3</t>
+          <t>PRIX EXP POMME GOLDEN FRANCE 170/220G CAT.I PLATEAU 1RG_S+3_class</t>
         </is>
       </c>
     </row>
@@ -473,13 +473,13 @@
         <v>1.384999990463257</v>
       </c>
       <c r="C2" t="n">
-        <v>1.524999976158142</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.524999976158142</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.524999976158142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -487,64 +487,104 @@
         <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>45551</v>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
       <c r="E9" t="n">
-        <v>1.479999959468842</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -552,12 +592,14 @@
         <v>45558</v>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
       <c r="D10" t="n">
-        <v>1.479999959468842</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1.459999978542328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -566,13 +608,13 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.479999959468842</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>1.459999978542328</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.444999992847443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -583,13 +625,13 @@
         <v>1.479999959468842</v>
       </c>
       <c r="C12" t="n">
-        <v>1.459999978542328</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1.444999992847443</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1.449999988079071</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -600,13 +642,13 @@
         <v>1.459999978542328</v>
       </c>
       <c r="C13" t="n">
-        <v>1.444999992847443</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1.449999988079071</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1.449999988079071</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +659,13 @@
         <v>1.444999992847443</v>
       </c>
       <c r="C14" t="n">
-        <v>1.449999988079071</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1.449999988079071</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1.404999971389771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -634,13 +676,13 @@
         <v>1.449999988079071</v>
       </c>
       <c r="C15" t="n">
-        <v>1.449999988079071</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1.404999971389771</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.435000002384186</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +693,13 @@
         <v>1.449999988079071</v>
       </c>
       <c r="C16" t="n">
-        <v>1.404999971389771</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.435000002384186</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>1.419999957084656</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -668,13 +710,13 @@
         <v>1.404999971389771</v>
       </c>
       <c r="C17" t="n">
-        <v>1.435000002384186</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>1.419999957084656</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1.394999980926514</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -685,13 +727,13 @@
         <v>1.435000002384186</v>
       </c>
       <c r="C18" t="n">
-        <v>1.419999957084656</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1.394999980926514</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1.389999985694885</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -702,13 +744,13 @@
         <v>1.419999957084656</v>
       </c>
       <c r="C19" t="n">
-        <v>1.394999980926514</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1.389999985694885</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1.384999990463257</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +761,13 @@
         <v>1.394999980926514</v>
       </c>
       <c r="C20" t="n">
-        <v>1.389999985694885</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>1.384999990463257</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1.384999990463257</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -736,13 +778,13 @@
         <v>1.389999985694885</v>
       </c>
       <c r="C21" t="n">
-        <v>1.384999990463257</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1.384999990463257</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>1.399999976158142</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -753,13 +795,13 @@
         <v>1.384999990463257</v>
       </c>
       <c r="C22" t="n">
-        <v>1.384999990463257</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>1.399999976158142</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -770,13 +812,13 @@
         <v>1.384999990463257</v>
       </c>
       <c r="C23" t="n">
-        <v>1.399999976158142</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -787,13 +829,13 @@
         <v>1.399999976158142</v>
       </c>
       <c r="C24" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1.394999980926514</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -804,13 +846,13 @@
         <v>1.399999976158142</v>
       </c>
       <c r="C25" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>1.394999980926514</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>1.404999971389771</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -821,12 +863,14 @@
         <v>1.399999976158142</v>
       </c>
       <c r="C26" t="n">
-        <v>1.394999980926514</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>1.404999971389771</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -836,10 +880,14 @@
         <v>1.394999980926514</v>
       </c>
       <c r="C27" t="n">
-        <v>1.404999971389771</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -848,9 +896,15 @@
       <c r="B28" t="n">
         <v>1.404999971389771</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -898,13 +952,13 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.47563898563385</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.488592147827148</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.419041633605957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -912,13 +966,13 @@
         <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.197889447212219</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.427534341812134</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.433180928230286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -926,13 +980,13 @@
         <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.500845909118652</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.505196094512939</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.435681462287903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -940,13 +994,13 @@
         <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.500158190727234</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.485893964767456</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.369091629981995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -954,13 +1008,13 @@
         <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.49676513671875</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.48973822593689</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1.380290150642395</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -968,13 +1022,13 @@
         <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.53440535068512</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.490962982177734</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1.459923386573792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +1036,13 @@
         <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.500158190727234</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1.499955177307129</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="n">
-        <v>1.401888966560364</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -996,13 +1050,13 @@
         <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.496873497962952</v>
+        <v>-2</v>
       </c>
       <c r="C9" t="n">
-        <v>1.507032752037048</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.488154530525208</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1010,13 +1064,13 @@
         <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.496941566467285</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1.509932041168213</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1.520715475082397</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1024,13 +1078,13 @@
         <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.503704071044922</v>
+        <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>1.557882785797119</v>
+        <v>-1</v>
       </c>
       <c r="D11" t="n">
-        <v>1.535121202468872</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1038,13 +1092,13 @@
         <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.4971604347229</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1.517968058586121</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.525589346885681</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1052,13 +1106,13 @@
         <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.521479368209839</v>
+        <v>-2</v>
       </c>
       <c r="C13" t="n">
-        <v>1.509179711341858</v>
+        <v>-1</v>
       </c>
       <c r="D13" t="n">
-        <v>1.513992309570312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1066,13 +1120,13 @@
         <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.505204916000366</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1.518368005752563</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.518237948417664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1080,13 +1134,13 @@
         <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.526449203491211</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.543480277061462</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.558897614479065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1094,13 +1148,13 @@
         <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.494455337524414</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.542732715606689</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.549822092056274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1108,13 +1162,13 @@
         <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.525384545326233</v>
+        <v>-1</v>
       </c>
       <c r="C17" t="n">
-        <v>1.512308835983276</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.554907560348511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1122,13 +1176,13 @@
         <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.505883812904358</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.483951091766357</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.535401940345764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1136,13 +1190,13 @@
         <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.491924524307251</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.487385988235474</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.508785247802734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1150,13 +1204,13 @@
         <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.498319506645203</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.531353116035461</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.525550603866577</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
@@ -1164,13 +1218,13 @@
         <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.492223262786865</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.499572157859802</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.508169412612915</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -1178,13 +1232,13 @@
         <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.529892325401306</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.504270553588867</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.503114104270935</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23">
@@ -1192,13 +1246,13 @@
         <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.49134886264801</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>1.520463943481445</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.417189717292786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1206,13 +1260,13 @@
         <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.525316715240479</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1.49042022228241</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.521194100379944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1220,13 +1274,13 @@
         <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>1.495038747787476</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1.467757701873779</v>
+        <v>-1</v>
       </c>
       <c r="D25" t="n">
-        <v>1.406204581260681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1234,13 +1288,13 @@
         <v>45677</v>
       </c>
       <c r="B26" t="n">
-        <v>1.497687220573425</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.481197953224182</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.500619292259216</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1248,13 +1302,13 @@
         <v>45684</v>
       </c>
       <c r="B27" t="n">
-        <v>1.480063676834106</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.454556107521057</v>
+        <v>-1</v>
       </c>
       <c r="D27" t="n">
-        <v>1.407195568084717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1262,13 +1316,13 @@
         <v>45691</v>
       </c>
       <c r="B28" t="n">
-        <v>1.479875564575195</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.4662024974823</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.478693246841431</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
